--- a/data/trans_orig/P21C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0453945-98C3-41E1-B389-16A7C9BEFD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3F13F7-8BCC-412C-9538-0481FD217597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D989E53D-AB94-4A8B-8BA7-E00835E28A50}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B561E691-85AF-4B1D-99D7-2524BB79AD91}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>94,34%</t>
   </si>
   <si>
-    <t>76,1%</t>
+    <t>77,66%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,13 +86,13 @@
     <t>97,15%</t>
   </si>
   <si>
-    <t>87,67%</t>
+    <t>87,09%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>86,58%</t>
+    <t>87,52%</t>
   </si>
   <si>
     <t>Se lo mandó el médico</t>
@@ -104,19 +104,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>23,9%</t>
+    <t>22,34%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>12,33%</t>
+    <t>12,91%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>13,42%</t>
+    <t>12,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,1522 +128,1516 @@
     <t>77,33%</t>
   </si>
   <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2012 (Tasa respuesta: 14,65%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2015 (Tasa respuesta: 10,5%)</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
     <t>64,62%</t>
   </si>
   <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
   </si>
   <si>
     <t>35,38%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2012 (Tasa respuesta: 14,65%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>47,97%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2015 (Tasa respuesta: 10,5%)</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>72,16%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
     <t>16,94%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
   </si>
   <si>
     <t>90,01%</t>
@@ -1652,13 +1646,13 @@
     <t>90,04%</t>
   </si>
   <si>
-    <t>69,64%</t>
+    <t>68,99%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>87,58%</t>
+    <t>88,37%</t>
   </si>
   <si>
     <t>0%</t>
@@ -1670,181 +1664,187 @@
     <t>9,96%</t>
   </si>
   <si>
-    <t>30,36%</t>
+    <t>31,01%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>12,42%</t>
+    <t>11,63%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>92,76%</t>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>90,75%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
+    <t>83,99%</t>
   </si>
   <si>
     <t>88,18%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>7,24%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
   </si>
   <si>
     <t>9,25%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>16,01%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>88,24%</t>
+    <t>97,74%</t>
   </si>
   <si>
     <t>54,62%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>66,25%</t>
   </si>
   <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>5,56%</t>
   </si>
   <si>
-    <t>11,76%</t>
+    <t>2,26%</t>
   </si>
   <si>
     <t>45,38%</t>
   </si>
   <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>33,75%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>88,07%</t>
   </si>
   <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
   </si>
   <si>
     <t>69,13%</t>
   </si>
   <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>77,87%</t>
   </si>
   <si>
     <t>77,3%</t>
   </si>
   <si>
-    <t>70,53%</t>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>11,93%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
   </si>
   <si>
     <t>30,87%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>22,7%</t>
   </si>
   <si>
-    <t>29,47%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
   </si>
   <si>
     <t>90,92%</t>
   </si>
   <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>73,37%</t>
   </si>
   <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>80,26%</t>
   </si>
   <si>
-    <t>58,95%</t>
+    <t>56,62%</t>
   </si>
   <si>
     <t>88,6%</t>
@@ -1853,19 +1853,19 @@
     <t>9,08%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
   </si>
   <si>
     <t>19,74%</t>
@@ -1874,7 +1874,7 @@
     <t>11,4%</t>
   </si>
   <si>
-    <t>41,05%</t>
+    <t>43,38%</t>
   </si>
 </sst>
 </file>
@@ -2286,7 +2286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DB8343-4AFA-4CD5-AA38-180C4E1EDCCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE139FF-2E1F-4146-87D0-6BB61DC5D4E8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2756,7 +2756,7 @@
         <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2771,13 @@
         <v>3754</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2786,13 +2786,13 @@
         <v>1933</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -2801,13 +2801,13 @@
         <v>5687</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,7 +2863,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2875,13 +2875,13 @@
         <v>46413</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
@@ -2890,10 +2890,10 @@
         <v>69895</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2905,13 +2905,13 @@
         <v>116307</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2926,13 @@
         <v>4709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2941,13 +2941,13 @@
         <v>1863</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -2956,13 +2956,13 @@
         <v>6572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,7 +3018,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3030,13 +3030,13 @@
         <v>16908</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -3045,13 +3045,13 @@
         <v>17855</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -3060,13 +3060,13 @@
         <v>34764</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3081,13 @@
         <v>4663</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -3096,13 +3096,13 @@
         <v>6103</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -3111,13 +3111,13 @@
         <v>10765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,7 +3173,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3185,10 +3185,10 @@
         <v>41305</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>13</v>
@@ -3200,10 +3200,10 @@
         <v>64226</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>13</v>
@@ -3215,10 +3215,10 @@
         <v>105533</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>13</v>
@@ -3236,13 +3236,13 @@
         <v>1051</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3251,13 +3251,13 @@
         <v>1017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3266,13 +3266,13 @@
         <v>2067</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3328,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3340,13 +3340,13 @@
         <v>71338</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>108</v>
@@ -3355,13 +3355,13 @@
         <v>112142</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>177</v>
@@ -3370,13 +3370,13 @@
         <v>183480</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,13 +3391,13 @@
         <v>8559</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -3406,13 +3406,13 @@
         <v>13760</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -3421,13 +3421,13 @@
         <v>22319</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3483,7 +3483,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3495,13 +3495,13 @@
         <v>47762</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>74</v>
@@ -3510,13 +3510,13 @@
         <v>78311</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>122</v>
@@ -3525,13 +3525,13 @@
         <v>126073</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,13 +3546,13 @@
         <v>8894</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3561,13 +3561,13 @@
         <v>18805</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>27</v>
@@ -3576,13 +3576,13 @@
         <v>27698</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3650,13 @@
         <v>339501</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H28" s="7">
         <v>477</v>
@@ -3665,13 +3665,13 @@
         <v>494398</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M28" s="7">
         <v>811</v>
@@ -3680,13 +3680,13 @@
         <v>833899</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,13 +3701,13 @@
         <v>46069</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H29" s="7">
         <v>67</v>
@@ -3716,13 +3716,13 @@
         <v>66104</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>111</v>
@@ -3731,13 +3731,13 @@
         <v>112173</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3793,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3817,7 +3817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC90A86B-CA6A-4CD4-8F38-3B8295021DBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2FA799-7D1C-4011-A2D5-EBC5D4398251}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3834,7 +3834,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3939,39 +3939,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,39 +3984,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,39 +4029,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4078,13 @@
         <v>58502</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -4093,13 +4093,13 @@
         <v>89892</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>140</v>
@@ -4108,13 +4108,13 @@
         <v>148395</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4129,13 @@
         <v>16439</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H8" s="7">
         <v>21</v>
@@ -4144,13 +4144,13 @@
         <v>22967</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>36</v>
@@ -4159,13 +4159,13 @@
         <v>39405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4233,13 @@
         <v>38995</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>55</v>
@@ -4248,13 +4248,13 @@
         <v>59420</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -4263,13 +4263,13 @@
         <v>98415</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4284,13 @@
         <v>8022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4299,13 +4299,13 @@
         <v>2992</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -4314,13 +4314,13 @@
         <v>11014</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,7 +4376,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4388,13 +4388,13 @@
         <v>91960</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -4403,13 +4403,13 @@
         <v>130208</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M13" s="7">
         <v>209</v>
@@ -4418,13 +4418,13 @@
         <v>222169</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4439,13 @@
         <v>8278</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4454,13 +4454,13 @@
         <v>15164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -4469,13 +4469,13 @@
         <v>23441</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,7 +4531,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4543,13 +4543,13 @@
         <v>13410</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -4558,13 +4558,13 @@
         <v>31530</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -4573,13 +4573,13 @@
         <v>44940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4594,13 @@
         <v>4445</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4609,13 +4609,13 @@
         <v>9184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -4624,13 +4624,13 @@
         <v>13629</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,7 +4686,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4698,13 +4698,13 @@
         <v>31872</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -4713,13 +4713,13 @@
         <v>52974</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -4728,13 +4728,13 @@
         <v>84845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4749,13 @@
         <v>10374</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -4764,13 +4764,13 @@
         <v>10833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -4779,13 +4779,13 @@
         <v>21207</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,7 +4841,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4853,13 +4853,13 @@
         <v>84028</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -4868,13 +4868,13 @@
         <v>98781</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>169</v>
@@ -4883,13 +4883,13 @@
         <v>182809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4904,13 @@
         <v>4238</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4919,13 +4919,13 @@
         <v>10211</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -4934,13 +4934,13 @@
         <v>14449</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,7 +4996,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5008,13 +5008,13 @@
         <v>28667</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -5023,13 +5023,13 @@
         <v>58852</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -5038,13 +5038,13 @@
         <v>87520</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5059,13 @@
         <v>13076</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -5074,13 +5074,13 @@
         <v>15335</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -5089,13 +5089,13 @@
         <v>28411</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5163,13 @@
         <v>347435</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H28" s="7">
         <v>482</v>
@@ -5178,13 +5178,13 @@
         <v>521658</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M28" s="7">
         <v>813</v>
@@ -5193,13 +5193,13 @@
         <v>869093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5214,13 @@
         <v>64871</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -5229,13 +5229,13 @@
         <v>86685</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>140</v>
@@ -5244,13 +5244,13 @@
         <v>151556</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,7 +5306,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -5330,7 +5330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0DA3B7-F713-4CA2-96A9-54089CE8FAC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C607A54-4524-40D0-979D-ADB13A80A637}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5347,7 +5347,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5454,13 +5454,13 @@
         <v>50424</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -5469,13 +5469,13 @@
         <v>57996</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -5484,13 +5484,13 @@
         <v>108419</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5505,13 @@
         <v>2828</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>322</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5520,13 +5520,13 @@
         <v>9076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -5535,13 +5535,13 @@
         <v>11905</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5609,13 @@
         <v>42373</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -5624,13 +5624,13 @@
         <v>48071</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>63</v>
+        <v>333</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -5639,13 +5639,13 @@
         <v>90445</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5660,13 @@
         <v>5915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5675,13 +5675,13 @@
         <v>11479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>342</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -5690,13 +5690,13 @@
         <v>17394</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5764,13 @@
         <v>13026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -5779,13 +5779,13 @@
         <v>23579</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5794,13 +5794,13 @@
         <v>36605</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5815,13 @@
         <v>5558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>352</v>
+        <v>215</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5830,13 +5830,13 @@
         <v>4550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -5845,13 +5845,13 @@
         <v>10108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,7 +5907,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5919,13 +5919,13 @@
         <v>44880</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -5934,13 +5934,13 @@
         <v>39311</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -5949,13 +5949,13 @@
         <v>84191</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5970,13 @@
         <v>10503</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -5985,13 +5985,13 @@
         <v>23016</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -6000,13 +6000,13 @@
         <v>33519</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,7 +6062,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6074,13 +6074,13 @@
         <v>6163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6089,13 +6089,13 @@
         <v>4654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6104,13 +6104,13 @@
         <v>10817</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6125,13 @@
         <v>5891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6140,13 +6140,13 @@
         <v>5787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -6155,13 +6155,13 @@
         <v>11678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,7 +6217,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6229,13 +6229,13 @@
         <v>28762</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -6244,13 +6244,13 @@
         <v>35655</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -6259,13 +6259,13 @@
         <v>64417</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6280,13 @@
         <v>5572</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6295,13 +6295,13 @@
         <v>4047</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -6310,13 +6310,13 @@
         <v>9620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,7 +6372,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6384,13 +6384,13 @@
         <v>52949</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -6399,13 +6399,13 @@
         <v>77132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>296</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -6414,13 +6414,13 @@
         <v>130081</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6435,13 @@
         <v>9175</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -6450,13 +6450,13 @@
         <v>10097</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>304</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -6465,13 +6465,13 @@
         <v>19272</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>425</v>
+        <v>309</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,7 +6527,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6539,13 +6539,13 @@
         <v>31561</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -6554,13 +6554,13 @@
         <v>58056</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -6569,13 +6569,13 @@
         <v>89617</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>283</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6590,13 @@
         <v>13794</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6605,13 +6605,13 @@
         <v>4193</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -6620,13 +6620,13 @@
         <v>17987</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>443</v>
+        <v>291</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6694,13 @@
         <v>270138</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="H28" s="7">
         <v>314</v>
@@ -6709,13 +6709,13 @@
         <v>344454</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="M28" s="7">
         <v>567</v>
@@ -6724,13 +6724,13 @@
         <v>614592</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>380</v>
+        <v>456</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6745,13 @@
         <v>59237</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H29" s="7">
         <v>67</v>
@@ -6760,13 +6760,13 @@
         <v>72246</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>123</v>
@@ -6775,13 +6775,13 @@
         <v>131483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>388</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6837,7 +6837,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -6861,7 +6861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FE1971-9AA6-4C8C-94AC-C810D3F5AD37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF56A860-D97F-490E-84B6-F0428CFFF821}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6878,7 +6878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6985,13 +6985,13 @@
         <v>53020</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>121</v>
@@ -7000,13 +7000,13 @@
         <v>57301</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -7015,13 +7015,13 @@
         <v>110321</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,13 +7036,13 @@
         <v>2439</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -7051,13 +7051,13 @@
         <v>4288</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -7066,13 +7066,13 @@
         <v>6727</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7140,13 @@
         <v>58390</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H7" s="7">
         <v>98</v>
@@ -7155,13 +7155,13 @@
         <v>75120</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
         <v>143</v>
@@ -7170,13 +7170,13 @@
         <v>133510</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7191,13 @@
         <v>8293</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -7206,13 +7206,13 @@
         <v>12986</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>494</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -7221,13 +7221,13 @@
         <v>21280</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7295,13 @@
         <v>46836</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -7310,13 +7310,13 @@
         <v>86657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>502</v>
+        <v>83</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -7325,13 +7325,13 @@
         <v>133493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7361,13 +7361,13 @@
         <v>6778</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>513</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -7376,13 +7376,13 @@
         <v>10776</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7438,7 +7438,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7450,13 +7450,13 @@
         <v>54019</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -7465,13 +7465,13 @@
         <v>65329</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>520</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -7480,13 +7480,13 @@
         <v>119349</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7501,13 @@
         <v>7052</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -7516,13 +7516,13 @@
         <v>17291</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -7531,13 +7531,13 @@
         <v>24343</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7593,7 +7593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7608,7 +7608,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -7620,10 +7620,10 @@
         <v>8182</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -7635,10 +7635,10 @@
         <v>24242</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -7659,10 +7659,10 @@
         <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7671,13 +7671,13 @@
         <v>905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -7686,13 +7686,13 @@
         <v>905</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,7 +7748,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7760,13 +7760,13 @@
         <v>49093</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -7775,13 +7775,13 @@
         <v>50642</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>549</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>550</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -7790,13 +7790,13 @@
         <v>99735</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7811,13 @@
         <v>8205</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7826,13 +7826,13 @@
         <v>5161</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -7841,13 +7841,13 @@
         <v>13366</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,7 +7903,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7915,13 +7915,13 @@
         <v>109487</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>69</v>
+        <v>561</v>
       </c>
       <c r="H22" s="7">
         <v>203</v>
@@ -7930,13 +7930,13 @@
         <v>153514</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="M22" s="7">
         <v>305</v>
@@ -7945,13 +7945,13 @@
         <v>263002</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,13 +7966,13 @@
         <v>6449</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>76</v>
+        <v>569</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -7981,13 +7981,13 @@
         <v>127562</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>574</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -7996,13 +7996,13 @@
         <v>134010</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>575</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,7 +8058,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8070,13 +8070,13 @@
         <v>61313</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -8085,13 +8085,13 @@
         <v>63445</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>583</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -8100,13 +8100,13 @@
         <v>124756</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,13 +8121,13 @@
         <v>8301</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -8136,13 +8136,13 @@
         <v>28327</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -8151,10 +8151,10 @@
         <v>36629</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>593</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21C-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F3F13F7-8BCC-412C-9538-0481FD217597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86F57C91-C3E0-477C-85BB-DF2F17228FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B561E691-85AF-4B1D-99D7-2524BB79AD91}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9BCE9AEB-9618-4E4D-89FD-D3395EC9E680}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="600">
   <si>
     <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2007 (Tasa respuesta: 14,16%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>94,34%</t>
   </si>
   <si>
-    <t>77,66%</t>
+    <t>73,31%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -86,13 +86,13 @@
     <t>97,15%</t>
   </si>
   <si>
-    <t>87,09%</t>
+    <t>85,35%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>87,52%</t>
+    <t>85,34%</t>
   </si>
   <si>
     <t>Se lo mandó el médico</t>
@@ -104,19 +104,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,34%</t>
+    <t>26,69%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>12,91%</t>
+    <t>14,65%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>12,48%</t>
+    <t>14,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,1452 +128,1434 @@
     <t>77,33%</t>
   </si>
   <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
   </si>
   <si>
     <t>75,41%</t>
   </si>
   <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
   </si>
   <si>
     <t>76,17%</t>
   </si>
   <si>
-    <t>67,76%</t>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2012 (Tasa respuesta: 14,65%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>82,73%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2016 (Tasa respuesta: 10,5%)</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>92,75%</t>
   </si>
   <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
   </si>
   <si>
     <t>7,25%</t>
   </si>
   <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2012 (Tasa respuesta: 14,65%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2015 (Tasa respuesta: 10,5%)</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>66,46%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>28,34%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>Población según motivo de asistencia a urgencias de la Seguridad Social en 2023 (Tasa respuesta: 16,78%)</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
     <t>4,06%</t>
   </si>
   <si>
@@ -1643,9 +1625,6 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>90,04%</t>
-  </si>
-  <si>
     <t>68,99%</t>
   </si>
   <si>
@@ -1661,9 +1640,6 @@
     <t>9,99%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
     <t>31,01%</t>
   </si>
   <si>
@@ -1772,9 +1748,6 @@
     <t>88,07%</t>
   </si>
   <si>
-    <t>76,6%</t>
-  </si>
-  <si>
     <t>93,94%</t>
   </si>
   <si>
@@ -1802,9 +1775,6 @@
     <t>6,06%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
     <t>30,87%</t>
   </si>
   <si>
@@ -1823,9 +1793,6 @@
     <t>30,71%</t>
   </si>
   <si>
-    <t>90,92%</t>
-  </si>
-  <si>
     <t>87,29%</t>
   </si>
   <si>
@@ -1848,9 +1815,6 @@
   </si>
   <si>
     <t>88,6%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
   </si>
   <si>
     <t>6,68%</t>
@@ -2286,7 +2250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EE139FF-2E1F-4146-87D0-6BB61DC5D4E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6F8EBD-3AFC-48DD-A540-F48A730067F4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3817,7 +3781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2FA799-7D1C-4011-A2D5-EBC5D4398251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA4F795-0B45-43D1-ACED-582F54A41BA6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4269,7 +4233,7 @@
         <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4248,13 @@
         <v>8022</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -4299,13 +4263,13 @@
         <v>2992</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -4314,13 +4278,13 @@
         <v>11014</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>205</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4352,13 @@
         <v>91960</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>121</v>
@@ -4403,13 +4367,13 @@
         <v>130208</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>209</v>
@@ -4418,13 +4382,13 @@
         <v>222169</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4403,13 @@
         <v>8278</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -4454,13 +4418,13 @@
         <v>15164</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -4469,13 +4433,13 @@
         <v>23441</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4507,13 @@
         <v>13410</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H16" s="7">
         <v>30</v>
@@ -4558,13 +4522,13 @@
         <v>31530</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="M16" s="7">
         <v>44</v>
@@ -4573,13 +4537,13 @@
         <v>44940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4558,13 @@
         <v>4445</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -4609,10 +4573,10 @@
         <v>9184</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>235</v>
@@ -4719,7 +4683,7 @@
         <v>243</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>155</v>
       </c>
       <c r="M19" s="7">
         <v>81</v>
@@ -4728,13 +4692,13 @@
         <v>84845</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4713,13 @@
         <v>10374</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -4764,13 +4728,13 @@
         <v>10833</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M20" s="7">
         <v>19</v>
@@ -4779,13 +4743,13 @@
         <v>21207</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4817,13 @@
         <v>84028</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -4868,13 +4832,13 @@
         <v>98781</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>169</v>
@@ -4883,13 +4847,13 @@
         <v>182809</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4868,13 @@
         <v>4238</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -4919,13 +4883,13 @@
         <v>10211</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -4934,13 +4898,13 @@
         <v>14449</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +4972,13 @@
         <v>28667</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -5023,13 +4987,13 @@
         <v>58852</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -5038,13 +5002,13 @@
         <v>87520</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5023,13 @@
         <v>13076</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -5074,13 +5038,13 @@
         <v>15335</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -5089,13 +5053,13 @@
         <v>28411</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5127,13 @@
         <v>347435</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H28" s="7">
         <v>482</v>
@@ -5178,13 +5142,13 @@
         <v>521658</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M28" s="7">
         <v>813</v>
@@ -5193,13 +5157,13 @@
         <v>869093</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5178,13 @@
         <v>64871</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H29" s="7">
         <v>81</v>
@@ -5229,13 +5193,13 @@
         <v>86685</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M29" s="7">
         <v>140</v>
@@ -5244,13 +5208,13 @@
         <v>151556</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,7 +5294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C607A54-4524-40D0-979D-ADB13A80A637}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{582E367B-88CB-48B3-9DAD-8CFADC1ECF6E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5347,7 +5311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5454,13 +5418,13 @@
         <v>50424</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>312</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>56</v>
@@ -5469,13 +5433,13 @@
         <v>57996</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>102</v>
@@ -5484,13 +5448,13 @@
         <v>108419</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>318</v>
+        <v>103</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5469,13 @@
         <v>2828</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>321</v>
+        <v>123</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5520,13 +5484,13 @@
         <v>9076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -5535,13 +5499,13 @@
         <v>11905</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5573,13 @@
         <v>42373</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -5624,13 +5588,13 @@
         <v>48071</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -5639,13 +5603,13 @@
         <v>90445</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5624,13 @@
         <v>5915</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -5675,13 +5639,13 @@
         <v>11479</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -5690,13 +5654,13 @@
         <v>17394</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5728,13 @@
         <v>13026</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -5779,13 +5743,13 @@
         <v>23579</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -5794,13 +5758,13 @@
         <v>36605</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5779,13 @@
         <v>5558</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>215</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -5830,13 +5794,13 @@
         <v>4550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -5845,13 +5809,13 @@
         <v>10108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5919,13 +5883,13 @@
         <v>44880</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -5934,13 +5898,13 @@
         <v>39311</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -5949,13 +5913,13 @@
         <v>84191</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5934,13 @@
         <v>10503</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>20</v>
@@ -5985,13 +5949,13 @@
         <v>23016</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>30</v>
@@ -6000,13 +5964,13 @@
         <v>33519</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6038,13 @@
         <v>6163</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6089,13 +6053,13 @@
         <v>4654</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6104,13 +6068,13 @@
         <v>10817</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6089,13 @@
         <v>5891</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -6140,13 +6104,13 @@
         <v>5787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>12</v>
@@ -6155,13 +6119,13 @@
         <v>11678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6193,13 @@
         <v>28762</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>31</v>
@@ -6244,13 +6208,13 @@
         <v>35655</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>100</v>
       </c>
       <c r="M19" s="7">
         <v>60</v>
@@ -6259,13 +6223,13 @@
         <v>64417</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6244,13 @@
         <v>5572</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -6295,13 +6259,13 @@
         <v>4047</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>106</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -6310,13 +6274,13 @@
         <v>9620</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,13 +6348,13 @@
         <v>52949</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -6399,13 +6363,13 @@
         <v>77132</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="M22" s="7">
         <v>116</v>
@@ -6414,13 +6378,13 @@
         <v>130081</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>301</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6399,13 @@
         <v>9175</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -6450,13 +6414,13 @@
         <v>10097</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M23" s="7">
         <v>16</v>
@@ -6465,13 +6429,13 @@
         <v>19272</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>309</v>
+        <v>425</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6503,13 @@
         <v>31561</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -6554,13 +6518,13 @@
         <v>58056</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>437</v>
+        <v>412</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -6569,13 +6533,13 @@
         <v>89617</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>283</v>
+        <v>433</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6554,13 @@
         <v>13794</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -6605,13 +6569,13 @@
         <v>4193</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -6620,13 +6584,13 @@
         <v>17987</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>291</v>
+        <v>441</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6658,13 @@
         <v>270138</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>314</v>
@@ -6709,13 +6673,13 @@
         <v>344454</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>567</v>
@@ -6724,13 +6688,13 @@
         <v>614592</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6709,13 @@
         <v>59237</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="H29" s="7">
         <v>67</v>
@@ -6760,13 +6724,13 @@
         <v>72246</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>123</v>
@@ -6775,13 +6739,13 @@
         <v>131483</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,7 +6825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF56A860-D97F-490E-84B6-F0428CFFF821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4070C6B8-9B78-4A05-9C4F-FAF1DAD3A4EA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6878,7 +6842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6985,13 +6949,13 @@
         <v>53020</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H4" s="7">
         <v>121</v>
@@ -7000,13 +6964,13 @@
         <v>57301</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -7015,13 +6979,13 @@
         <v>110321</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>475</v>
+        <v>316</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>476</v>
+        <v>70</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,13 +7000,13 @@
         <v>2439</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -7051,13 +7015,13 @@
         <v>4288</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -7066,13 +7030,13 @@
         <v>6727</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>322</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>486</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7104,13 @@
         <v>58390</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="H7" s="7">
         <v>98</v>
@@ -7155,13 +7119,13 @@
         <v>75120</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>480</v>
       </c>
       <c r="M7" s="7">
         <v>143</v>
@@ -7170,13 +7134,13 @@
         <v>133510</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7155,13 @@
         <v>8293</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -7206,13 +7170,13 @@
         <v>12986</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>109</v>
+        <v>488</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>25</v>
@@ -7221,13 +7185,13 @@
         <v>21280</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7259,13 @@
         <v>46836</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="H10" s="7">
         <v>115</v>
@@ -7310,13 +7274,13 @@
         <v>86657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>496</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="M10" s="7">
         <v>173</v>
@@ -7325,13 +7289,13 @@
         <v>133493</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7310,13 @@
         <v>3998</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -7361,13 +7325,13 @@
         <v>6778</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>91</v>
+        <v>504</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -7376,13 +7340,13 @@
         <v>10776</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7414,13 @@
         <v>54019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
@@ -7465,13 +7429,13 @@
         <v>65329</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
@@ -7480,13 +7444,13 @@
         <v>119349</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7465,13 @@
         <v>7052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -7516,13 +7480,13 @@
         <v>17291</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -7531,13 +7495,13 @@
         <v>24343</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,7 +7572,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>26</v>
@@ -7620,10 +7584,10 @@
         <v>8182</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>534</v>
+        <v>435</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -7635,10 +7599,10 @@
         <v>24242</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -7659,10 +7623,10 @@
         <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -7671,13 +7635,13 @@
         <v>905</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>540</v>
+        <v>442</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -7686,13 +7650,13 @@
         <v>905</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,13 +7724,13 @@
         <v>49093</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="H19" s="7">
         <v>93</v>
@@ -7775,13 +7739,13 @@
         <v>50642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>163</v>
@@ -7790,13 +7754,13 @@
         <v>99735</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7775,13 @@
         <v>8205</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7826,13 +7790,13 @@
         <v>5161</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="M20" s="7">
         <v>24</v>
@@ -7841,13 +7805,13 @@
         <v>13366</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,13 +7879,13 @@
         <v>109487</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H22" s="7">
         <v>203</v>
@@ -7930,13 +7894,13 @@
         <v>153514</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="M22" s="7">
         <v>305</v>
@@ -7945,13 +7909,13 @@
         <v>263002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,13 +7930,13 @@
         <v>6449</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="H23" s="7">
         <v>26</v>
@@ -7981,13 +7945,13 @@
         <v>127562</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="M23" s="7">
         <v>33</v>
@@ -7996,13 +7960,13 @@
         <v>134010</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,13 +8034,13 @@
         <v>61313</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>577</v>
+        <v>400</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="H25" s="7">
         <v>83</v>
@@ -8085,13 +8049,13 @@
         <v>63445</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="M25" s="7">
         <v>140</v>
@@ -8100,13 +8064,13 @@
         <v>124756</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,13 +8085,13 @@
         <v>8301</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>587</v>
+        <v>409</v>
       </c>
       <c r="H26" s="7">
         <v>30</v>
@@ -8136,13 +8100,13 @@
         <v>28327</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="M26" s="7">
         <v>39</v>
@@ -8151,13 +8115,13 @@
         <v>36629</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8189,13 @@
         <v>448218</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>594</v>
+        <v>68</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="H28" s="7">
         <v>828</v>
@@ -8240,13 +8204,13 @@
         <v>560190</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="M28" s="7">
         <v>1288</v>
@@ -8255,13 +8219,13 @@
         <v>1008408</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8240,13 @@
         <v>44737</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>603</v>
+        <v>76</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="H29" s="7">
         <v>130</v>
@@ -8291,13 +8255,13 @@
         <v>203299</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="M29" s="7">
         <v>179</v>
@@ -8306,13 +8270,13 @@
         <v>248036</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
